--- a/Timesheet Automation/Timesheet Automation - Harry Setiawan - August 2022 .xlsx
+++ b/Timesheet Automation/Timesheet Automation - Harry Setiawan - August 2022 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI\Timesheet Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0CC604-9C51-42EB-BEF2-F3405CAB39D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3EEB7-5BCD-44C4-857A-A809339067BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
   <si>
     <t>Bank Syariah Indonesia IT-Tester Daily Activity Reports</t>
   </si>
@@ -162,13 +162,25 @@
   </si>
   <si>
     <t>Running &amp; Scripting automation epic profile - change email - negative</t>
+  </si>
+  <si>
+    <t>TTD Kontrak Probation di APL</t>
+  </si>
+  <si>
+    <t>Belajar Unified Functional Testing dari Youtube (Flight Simulator)</t>
+  </si>
+  <si>
+    <t>Belajar scripting manual pada menu Ziswaf Hewan Qurban</t>
+  </si>
+  <si>
+    <t>Belajar scripting manual pada menu infaq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,13 +241,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -248,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,12 +269,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,20 +385,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,19 +401,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -435,17 +428,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,13 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,13 +550,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>273327</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>372717</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>52981</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -573,7 +572,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1263927" y="4463498"/>
+          <a:off x="1263927" y="7320998"/>
           <a:ext cx="651840" cy="790133"/>
           <a:chOff x="4986431" y="3318607"/>
           <a:chExt cx="719138" cy="922787"/>
@@ -1206,10 +1205,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,22 +1224,22 @@
     <col min="9" max="9" width="4.85546875" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
     <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="74.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="74.28515625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1249,48 +1248,48 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="6" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="34" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
       <c r="L7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1310,752 +1309,1165 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="27">
+        <v>44774</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>2</v>
+      </c>
+      <c r="B10" s="27">
+        <v>44775</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>3</v>
+      </c>
+      <c r="B11" s="27">
+        <v>44776</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>4</v>
+      </c>
+      <c r="B12" s="27">
+        <v>44777</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>5</v>
+      </c>
+      <c r="B13" s="27">
+        <v>44778</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27">
+        <v>44779</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="27">
+        <v>44780</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="31"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" s="27">
+        <v>44781</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="9">
+        <v>46</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <f>H16-(I16+J16)</f>
+        <v>41</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>9</v>
+      </c>
+      <c r="B17" s="27">
+        <v>44782</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="9">
+        <v>46</v>
+      </c>
+      <c r="I17" s="9">
+        <v>12</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" ref="K17:K20" si="0">H17-(I17+J17)</f>
+        <v>34</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>10</v>
+      </c>
+      <c r="B18" s="27">
+        <v>44783</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="9">
+        <v>61</v>
+      </c>
+      <c r="I18" s="9">
+        <v>8</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>11</v>
+      </c>
+      <c r="B19" s="27">
+        <v>44784</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="9">
+        <v>61</v>
+      </c>
+      <c r="I19" s="9">
+        <v>10</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>12</v>
+      </c>
+      <c r="B20" s="27">
+        <v>44785</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="9">
+        <v>61</v>
+      </c>
+      <c r="I20" s="9">
+        <v>14</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>13</v>
+      </c>
+      <c r="B21" s="27">
+        <v>44786</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>14</v>
+      </c>
+      <c r="B22" s="27">
+        <v>44787</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>15</v>
+      </c>
+      <c r="B23" s="27">
         <v>44788</v>
       </c>
-      <c r="C9" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="C23" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="17">
-        <f>H9-(I9+J9)</f>
+      <c r="H23" s="13">
+        <v>139</v>
+      </c>
+      <c r="I23" s="13">
+        <v>6</v>
+      </c>
+      <c r="J23" s="13">
         <v>0</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="K23" s="15">
+        <f>H23-(I23+J23)</f>
+        <v>133</v>
+      </c>
+      <c r="L23" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>2</v>
-      </c>
-      <c r="B10" s="9">
+    </row>
+    <row r="24" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>16</v>
+      </c>
+      <c r="B24" s="27">
         <v>44789</v>
       </c>
-      <c r="C10" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="C24" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H24" s="15">
         <v>139</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I24" s="15">
+        <v>10</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <f>H24-(I24+J24)</f>
+        <v>129</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>17</v>
+      </c>
+      <c r="B25" s="27">
+        <v>44790</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="15">
+        <v>139</v>
+      </c>
+      <c r="I25" s="15">
+        <v>31</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <f>H24-(I25+J25)</f>
+        <v>108</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>18</v>
+      </c>
+      <c r="B26" s="27">
+        <v>44791</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="15">
+        <v>139</v>
+      </c>
+      <c r="I26" s="15">
+        <v>40</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" ref="K26:K27" si="1">H25-(I26+J26)</f>
+        <v>99</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>19</v>
+      </c>
+      <c r="B27" s="27">
+        <v>44792</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="15">
+        <v>139</v>
+      </c>
+      <c r="I27" s="15">
+        <v>16</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
         <v>20</v>
       </c>
-      <c r="J10" s="17">
+      <c r="B28" s="27">
+        <v>44793</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>21</v>
+      </c>
+      <c r="B29" s="27">
+        <v>44794</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+    </row>
+    <row r="30" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>22</v>
+      </c>
+      <c r="B30" s="27">
+        <v>44795</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="15">
+        <v>139</v>
+      </c>
+      <c r="I30" s="9">
+        <v>16</v>
+      </c>
+      <c r="J30" s="9">
         <v>0</v>
       </c>
-      <c r="K10" s="17">
-        <f>H10-(I10+J10)</f>
-        <v>119</v>
-      </c>
-      <c r="L10" s="22" t="s">
+      <c r="K30" s="15">
+        <f>H27-(I30+J30)</f>
+        <v>123</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+    </row>
+    <row r="31" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>23</v>
+      </c>
+      <c r="B31" s="27">
+        <v>44796</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="15">
+        <v>139</v>
+      </c>
+      <c r="I31" s="15">
+        <v>53</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" ref="K31:K34" si="2">H28-(I31+J31)</f>
+        <v>-53</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+    </row>
+    <row r="32" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>24</v>
+      </c>
+      <c r="B32" s="27">
+        <v>44797</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="15">
+        <v>139</v>
+      </c>
+      <c r="I32" s="15">
+        <v>16</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="15">
+        <f t="shared" si="2"/>
+        <v>-17</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+    </row>
+    <row r="33" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>25</v>
+      </c>
+      <c r="B33" s="27">
+        <v>44798</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="15">
+        <v>54</v>
+      </c>
+      <c r="I33" s="15">
+        <v>23</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+    </row>
+    <row r="34" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>26</v>
+      </c>
+      <c r="B34" s="27">
+        <v>44799</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="15">
+        <v>54</v>
+      </c>
+      <c r="I34" s="15">
+        <v>29</v>
+      </c>
+      <c r="J34" s="9">
+        <v>1</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+    </row>
+    <row r="35" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>27</v>
+      </c>
+      <c r="B35" s="27">
+        <v>44800</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+    </row>
+    <row r="36" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>28</v>
+      </c>
+      <c r="B36" s="27">
+        <v>44801</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+    </row>
+    <row r="37" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>29</v>
+      </c>
+      <c r="B37" s="27">
+        <v>44802</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="15">
+        <v>54</v>
+      </c>
+      <c r="I37" s="9">
+        <v>23</v>
+      </c>
+      <c r="J37" s="9">
+        <v>1</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" ref="K37:K39" si="3">H37-(I37+J37)</f>
         <v>30</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>3</v>
-      </c>
-      <c r="B11" s="9">
-        <v>44790</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="L37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+    </row>
+    <row r="38" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>30</v>
+      </c>
+      <c r="B38" s="27">
+        <v>44803</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F38" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="17">
-        <v>139</v>
-      </c>
-      <c r="I11" s="17">
+      <c r="H38" s="15">
+        <v>124</v>
+      </c>
+      <c r="I38" s="15">
+        <v>58</v>
+      </c>
+      <c r="J38" s="9">
+        <v>6</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+    </row>
+    <row r="39" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>31</v>
+      </c>
+      <c r="B39" s="27">
+        <v>44804</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="15">
+        <v>124</v>
+      </c>
+      <c r="I39" s="15">
+        <v>58</v>
+      </c>
+      <c r="J39" s="9">
+        <v>6</v>
+      </c>
+      <c r="K39" s="15">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="17">
-        <v>0</v>
-      </c>
-      <c r="K11" s="17">
-        <f t="shared" ref="K11:K13" si="0">H11-(I11+J11)</f>
-        <v>99</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-    </row>
-    <row r="12" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="9">
-        <v>44791</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="17">
-        <v>139</v>
-      </c>
-      <c r="I12" s="17">
-        <v>40</v>
-      </c>
-      <c r="J12" s="17">
-        <v>0</v>
-      </c>
-      <c r="K12" s="17">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-    </row>
-    <row r="13" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>5</v>
-      </c>
-      <c r="B13" s="9">
-        <v>44792</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="17">
-        <v>139</v>
-      </c>
-      <c r="I13" s="17">
-        <v>16</v>
-      </c>
-      <c r="J13" s="17">
-        <v>0</v>
-      </c>
-      <c r="K13" s="17">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>6</v>
-      </c>
-      <c r="B14" s="9">
-        <v>44793</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-    </row>
-    <row r="15" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>7</v>
-      </c>
-      <c r="B15" s="9">
-        <v>44794</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>8</v>
-      </c>
-      <c r="B16" s="9">
-        <v>44795</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="17">
-        <v>139</v>
-      </c>
-      <c r="I16" s="10">
-        <v>16</v>
-      </c>
-      <c r="J16" s="10">
-        <v>0</v>
-      </c>
-      <c r="K16" s="17">
-        <f t="shared" ref="K16:K20" si="1">H16-(I16+J16)</f>
-        <v>123</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-    </row>
-    <row r="17" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>9</v>
-      </c>
-      <c r="B17" s="9">
-        <v>44796</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="17">
-        <v>139</v>
-      </c>
-      <c r="I17" s="17">
-        <v>53</v>
-      </c>
-      <c r="J17" s="10">
-        <v>0</v>
-      </c>
-      <c r="K17" s="17">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-    </row>
-    <row r="18" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>10</v>
-      </c>
-      <c r="B18" s="9">
-        <v>44797</v>
-      </c>
-      <c r="C18" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="17">
-        <v>139</v>
-      </c>
-      <c r="I18" s="17">
-        <v>16</v>
-      </c>
-      <c r="J18" s="10">
-        <v>1</v>
-      </c>
-      <c r="K18" s="17">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-    </row>
-    <row r="19" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>11</v>
-      </c>
-      <c r="B19" s="9">
-        <v>44798</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D19" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="17">
-        <v>54</v>
-      </c>
-      <c r="I19" s="17">
-        <v>23</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0</v>
-      </c>
-      <c r="K19" s="17">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-    </row>
-    <row r="20" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>12</v>
-      </c>
-      <c r="B20" s="9">
-        <v>44799</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D20" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="17">
-        <v>54</v>
-      </c>
-      <c r="I20" s="17">
-        <v>29</v>
-      </c>
-      <c r="J20" s="10">
-        <v>1</v>
-      </c>
-      <c r="K20" s="17">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-    </row>
-    <row r="21" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>13</v>
-      </c>
-      <c r="B21" s="9">
-        <v>44800</v>
-      </c>
-      <c r="C21" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-    </row>
-    <row r="22" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>14</v>
-      </c>
-      <c r="B22" s="9">
-        <v>44801</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-    </row>
-    <row r="23" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>15</v>
-      </c>
-      <c r="B23" s="9">
-        <v>44802</v>
-      </c>
-      <c r="C23" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="17">
-        <v>54</v>
-      </c>
-      <c r="I23" s="10">
-        <v>23</v>
-      </c>
-      <c r="J23" s="10">
-        <v>1</v>
-      </c>
-      <c r="K23" s="17">
-        <f t="shared" ref="K23:K25" si="2">H23-(I23+J23)</f>
-        <v>30</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-    </row>
-    <row r="24" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
-        <v>16</v>
-      </c>
-      <c r="B24" s="9">
-        <v>44803</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="17">
-        <v>124</v>
-      </c>
-      <c r="I24" s="17">
-        <v>58</v>
-      </c>
-      <c r="J24" s="10">
-        <v>6</v>
-      </c>
-      <c r="K24" s="17">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>17</v>
-      </c>
-      <c r="B25" s="9">
-        <v>44804</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D25" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="27">
-        <v>124</v>
-      </c>
-      <c r="I25" s="27">
-        <v>58</v>
-      </c>
-      <c r="J25" s="10">
-        <v>6</v>
-      </c>
-      <c r="K25" s="17">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="L25" s="28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="L33" s="16" t="s">
+      <c r="L48" s="14" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="E22:L22"/>
+  <mergeCells count="6">
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
